--- a/MATLAB/SintesisYRecursos.xlsx
+++ b/MATLAB/SintesisYRecursos.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eros_\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="28455" windowHeight="12540"/>
   </bookViews>
@@ -22,7 +27,7 @@
     <sheet name="Timing Filter" sheetId="15" r:id="rId13"/>
     <sheet name="Timing Config_Reverb" sheetId="16" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -635,8 +640,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1107,6 +1112,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1153,7 +1166,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1185,9 +1198,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1219,6 +1233,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1394,14 +1409,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -1419,13 +1434,13 @@
     <col min="17" max="17" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:17" ht="15.75" thickBot="1"/>
-    <row r="5" spans="4:17" ht="15.75" thickBot="1">
+    <row r="4" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="4:17" ht="15.75" thickBot="1">
+    <row r="6" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1469,7 +1484,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="4:17">
+    <row r="7" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
@@ -1513,7 +1528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="4:17">
+    <row r="8" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D8" s="3" t="s">
         <v>0</v>
       </c>
@@ -1557,7 +1572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:17">
+    <row r="9" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D9" s="4" t="s">
         <v>1</v>
       </c>
@@ -1601,7 +1616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:17">
+    <row r="10" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1645,7 +1660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:17">
+    <row r="11" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D11" s="4" t="s">
         <v>3</v>
       </c>
@@ -1689,7 +1704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="4:17">
+    <row r="12" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1733,7 +1748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="4:17">
+    <row r="13" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D13" s="4" t="s">
         <v>139</v>
       </c>
@@ -1777,7 +1792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:17">
+    <row r="14" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1821,7 +1836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="4:17">
+    <row r="15" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D15" s="4" t="s">
         <v>6</v>
       </c>
@@ -1865,7 +1880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="4:17">
+    <row r="16" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D16" s="3" t="s">
         <v>7</v>
       </c>
@@ -1909,7 +1924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="4:17">
+    <row r="17" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D17" s="4" t="s">
         <v>8</v>
       </c>
@@ -1953,7 +1968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="4:17">
+    <row r="18" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D18" s="3" t="s">
         <v>9</v>
       </c>
@@ -1997,7 +2012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="4:17" ht="15.75" thickBot="1">
+    <row r="19" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
@@ -2010,7 +2025,9 @@
       <c r="G19" s="26">
         <v>51.978000000000002</v>
       </c>
-      <c r="H19" s="26"/>
+      <c r="H19" s="26">
+        <v>0.22700000000000001</v>
+      </c>
       <c r="I19" s="26">
         <f>I7+I8+I9+I10+I11+I12+I13+I14+I15+I16+I17+I18</f>
         <v>12500</v>
@@ -2040,7 +2057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="4:17" ht="15.75" thickBot="1">
+    <row r="20" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G20" s="31">
         <f>MIN(G8,G9,G10,G11,G12,G13,G14,G15,G16,G17,G18)</f>
         <v>63.539000000000001</v>
@@ -2070,7 +2087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="4:17">
+    <row r="22" spans="4:17" x14ac:dyDescent="0.25">
       <c r="E22" s="16"/>
     </row>
   </sheetData>
@@ -2080,14 +2097,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
@@ -2103,7 +2120,7 @@
     <col min="14" max="14" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -2147,7 +2164,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>36</v>
       </c>
@@ -2191,7 +2208,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>41</v>
       </c>
@@ -2235,7 +2252,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>43</v>
       </c>
@@ -2279,7 +2296,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>45</v>
       </c>
@@ -2323,7 +2340,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>47</v>
       </c>
@@ -2367,12 +2384,12 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="14">
-        <v>74.575363159179687</v>
+        <v>74.575363159179688</v>
       </c>
       <c r="C7" s="15">
         <v>0</v>
@@ -2411,7 +2428,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>51</v>
       </c>
@@ -2455,7 +2472,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>53</v>
       </c>
@@ -2499,7 +2516,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>55</v>
       </c>
@@ -2543,7 +2560,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>57</v>
       </c>
@@ -2593,14 +2610,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
@@ -2617,7 +2634,7 @@
     <col min="14" max="14" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -2661,7 +2678,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>36</v>
       </c>
@@ -2705,7 +2722,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>41</v>
       </c>
@@ -2749,12 +2766,12 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="14">
-        <v>79.259780883789062</v>
+        <v>79.259780883789063</v>
       </c>
       <c r="C4" s="15">
         <v>5</v>
@@ -2793,12 +2810,12 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B5" s="14">
-        <v>79.259780883789062</v>
+        <v>79.259780883789063</v>
       </c>
       <c r="C5" s="15">
         <v>5</v>
@@ -2837,7 +2854,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>47</v>
       </c>
@@ -2881,7 +2898,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>49</v>
       </c>
@@ -2925,7 +2942,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>51</v>
       </c>
@@ -2945,7 +2962,7 @@
         <v>68</v>
       </c>
       <c r="G8" s="14">
-        <v>8.8392410278320312</v>
+        <v>8.8392410278320313</v>
       </c>
       <c r="H8" s="14">
         <v>1.5580002069473267</v>
@@ -2969,7 +2986,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>53</v>
       </c>
@@ -3013,7 +3030,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>55</v>
       </c>
@@ -3057,7 +3074,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>57</v>
       </c>
@@ -3107,14 +3124,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
@@ -3131,7 +3148,7 @@
     <col min="14" max="14" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -3175,7 +3192,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>36</v>
       </c>
@@ -3219,7 +3236,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>41</v>
       </c>
@@ -3263,7 +3280,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>43</v>
       </c>
@@ -3307,7 +3324,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>45</v>
       </c>
@@ -3351,7 +3368,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>47</v>
       </c>
@@ -3395,7 +3412,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>49</v>
       </c>
@@ -3439,7 +3456,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>51</v>
       </c>
@@ -3483,7 +3500,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>53</v>
       </c>
@@ -3527,7 +3544,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>55</v>
       </c>
@@ -3571,7 +3588,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>57</v>
       </c>
@@ -3621,14 +3638,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
@@ -3644,7 +3661,7 @@
     <col min="14" max="14" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -3688,7 +3705,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>36</v>
       </c>
@@ -3732,7 +3749,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>41</v>
       </c>
@@ -3776,7 +3793,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>43</v>
       </c>
@@ -3820,7 +3837,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>45</v>
       </c>
@@ -3864,7 +3881,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>47</v>
       </c>
@@ -3908,7 +3925,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>49</v>
       </c>
@@ -3952,7 +3969,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>51</v>
       </c>
@@ -3996,7 +4013,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>53</v>
       </c>
@@ -4040,7 +4057,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>55</v>
       </c>
@@ -4084,7 +4101,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>57</v>
       </c>
@@ -4134,14 +4151,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
@@ -4157,7 +4174,7 @@
     <col min="14" max="14" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -4201,7 +4218,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>36</v>
       </c>
@@ -4245,7 +4262,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>41</v>
       </c>
@@ -4289,7 +4306,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>43</v>
       </c>
@@ -4333,7 +4350,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>45</v>
       </c>
@@ -4377,7 +4394,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>47</v>
       </c>
@@ -4421,7 +4438,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>49</v>
       </c>
@@ -4465,7 +4482,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>51</v>
       </c>
@@ -4509,7 +4526,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>53</v>
       </c>
@@ -4553,7 +4570,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>55</v>
       </c>
@@ -4597,7 +4614,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>57</v>
       </c>
@@ -4647,14 +4664,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
@@ -4671,7 +4688,7 @@
     <col min="14" max="14" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -4715,12 +4732,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="14">
-        <v>51.978317260742187</v>
+        <v>51.978317260742188</v>
       </c>
       <c r="C2" s="15">
         <v>5</v>
@@ -4759,12 +4776,12 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B3" s="14">
-        <v>51.978317260742187</v>
+        <v>51.978317260742188</v>
       </c>
       <c r="C3" s="15">
         <v>5</v>
@@ -4803,12 +4820,12 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="14">
-        <v>51.978317260742187</v>
+        <v>51.978317260742188</v>
       </c>
       <c r="C4" s="15">
         <v>5</v>
@@ -4847,12 +4864,12 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B5" s="14">
-        <v>51.978317260742187</v>
+        <v>51.978317260742188</v>
       </c>
       <c r="C5" s="15">
         <v>5</v>
@@ -4891,7 +4908,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>47</v>
       </c>
@@ -4935,7 +4952,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>49</v>
       </c>
@@ -4979,7 +4996,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>51</v>
       </c>
@@ -5023,7 +5040,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>53</v>
       </c>
@@ -5067,7 +5084,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>55</v>
       </c>
@@ -5111,7 +5128,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>57</v>
       </c>
@@ -5161,14 +5178,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
@@ -5185,7 +5202,7 @@
     <col min="14" max="14" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -5229,7 +5246,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>36</v>
       </c>
@@ -5273,7 +5290,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>41</v>
       </c>
@@ -5317,7 +5334,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>43</v>
       </c>
@@ -5361,7 +5378,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>45</v>
       </c>
@@ -5405,12 +5422,12 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="14">
-        <v>77.403366088867187</v>
+        <v>77.403366088867188</v>
       </c>
       <c r="C6" s="15">
         <v>7</v>
@@ -5449,7 +5466,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>49</v>
       </c>
@@ -5493,7 +5510,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>51</v>
       </c>
@@ -5537,7 +5554,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>53</v>
       </c>
@@ -5581,7 +5598,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>55</v>
       </c>
@@ -5625,7 +5642,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>57</v>
       </c>
@@ -5675,14 +5692,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
@@ -5699,7 +5716,7 @@
     <col min="14" max="14" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -5743,7 +5760,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>36</v>
       </c>
@@ -5787,7 +5804,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>41</v>
       </c>
@@ -5831,7 +5848,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>43</v>
       </c>
@@ -5875,7 +5892,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>45</v>
       </c>
@@ -5919,7 +5936,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>47</v>
       </c>
@@ -5963,7 +5980,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>49</v>
       </c>
@@ -5983,7 +6000,7 @@
         <v>83</v>
       </c>
       <c r="G7" s="14">
-        <v>7.7412948608398437</v>
+        <v>7.7412948608398438</v>
       </c>
       <c r="H7" s="14">
         <v>1.7979999780654907</v>
@@ -6007,7 +6024,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>51</v>
       </c>
@@ -6027,7 +6044,7 @@
         <v>75</v>
       </c>
       <c r="G8" s="14">
-        <v>7.7412948608398437</v>
+        <v>7.7412948608398438</v>
       </c>
       <c r="H8" s="14">
         <v>1.7979999780654907</v>
@@ -6051,7 +6068,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>53</v>
       </c>
@@ -6095,7 +6112,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>55</v>
       </c>
@@ -6139,7 +6156,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>57</v>
       </c>
@@ -6189,14 +6206,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
@@ -6213,7 +6230,7 @@
     <col min="14" max="14" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -6257,7 +6274,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>36</v>
       </c>
@@ -6301,7 +6318,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>41</v>
       </c>
@@ -6345,7 +6362,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>43</v>
       </c>
@@ -6389,7 +6406,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>45</v>
       </c>
@@ -6433,7 +6450,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>47</v>
       </c>
@@ -6477,7 +6494,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>49</v>
       </c>
@@ -6521,7 +6538,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>51</v>
       </c>
@@ -6565,7 +6582,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>53</v>
       </c>
@@ -6609,7 +6626,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>55</v>
       </c>
@@ -6653,7 +6670,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>57</v>
       </c>
@@ -6703,14 +6720,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
@@ -6726,7 +6743,7 @@
     <col min="14" max="14" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -6770,7 +6787,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>36</v>
       </c>
@@ -6814,7 +6831,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>41</v>
       </c>
@@ -6858,7 +6875,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>43</v>
       </c>
@@ -6902,7 +6919,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>45</v>
       </c>
@@ -6946,7 +6963,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>47</v>
       </c>
@@ -6966,7 +6983,7 @@
         <v>105</v>
       </c>
       <c r="G6" s="14">
-        <v>24.074508666992187</v>
+        <v>24.074508666992188</v>
       </c>
       <c r="H6" s="14">
         <v>2.5899999141693115</v>
@@ -6990,7 +7007,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>49</v>
       </c>
@@ -7034,7 +7051,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>51</v>
       </c>
@@ -7078,7 +7095,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>53</v>
       </c>
@@ -7122,7 +7139,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>55</v>
       </c>
@@ -7166,7 +7183,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>57</v>
       </c>
@@ -7216,14 +7233,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
@@ -7240,7 +7257,7 @@
     <col min="14" max="14" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -7284,7 +7301,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>36</v>
       </c>
@@ -7328,7 +7345,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>41</v>
       </c>
@@ -7372,7 +7389,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>43</v>
       </c>
@@ -7416,7 +7433,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>45</v>
       </c>
@@ -7460,7 +7477,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>47</v>
       </c>
@@ -7504,7 +7521,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>49</v>
       </c>
@@ -7548,7 +7565,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>51</v>
       </c>
@@ -7592,7 +7609,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>53</v>
       </c>
@@ -7636,7 +7653,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>55</v>
       </c>
@@ -7680,7 +7697,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>57</v>
       </c>
@@ -7730,14 +7747,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
@@ -7753,7 +7770,7 @@
     <col min="14" max="14" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -7797,7 +7814,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>36</v>
       </c>
@@ -7841,7 +7858,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>41</v>
       </c>
@@ -7885,7 +7902,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>43</v>
       </c>
@@ -7929,7 +7946,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>45</v>
       </c>
@@ -7973,7 +7990,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>47</v>
       </c>
@@ -8017,7 +8034,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>49</v>
       </c>
@@ -8061,7 +8078,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>51</v>
       </c>
@@ -8105,7 +8122,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>53</v>
       </c>
@@ -8149,7 +8166,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>55</v>
       </c>
@@ -8193,7 +8210,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>57</v>
       </c>
@@ -8243,14 +8260,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
@@ -8266,7 +8283,7 @@
     <col min="14" max="14" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -8310,7 +8327,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>36</v>
       </c>
@@ -8354,7 +8371,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>41</v>
       </c>
@@ -8398,7 +8415,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>43</v>
       </c>
@@ -8442,7 +8459,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>45</v>
       </c>
@@ -8486,7 +8503,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>47</v>
       </c>
@@ -8530,7 +8547,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>49</v>
       </c>
@@ -8574,7 +8591,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>51</v>
       </c>
@@ -8618,7 +8635,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>53</v>
       </c>
@@ -8662,7 +8679,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>55</v>
       </c>
@@ -8706,7 +8723,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>57</v>
       </c>

--- a/MATLAB/SintesisYRecursos.xlsx
+++ b/MATLAB/SintesisYRecursos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="219">
   <si>
     <t>ES</t>
   </si>
@@ -630,6 +630,60 @@
   </si>
   <si>
     <t>59s</t>
+  </si>
+  <si>
+    <t>ECO\Recursos para 16b</t>
+  </si>
+  <si>
+    <t>1m 56s</t>
+  </si>
+  <si>
+    <t>56s</t>
+  </si>
+  <si>
+    <t>54m 01s</t>
+  </si>
+  <si>
+    <t>2m 03s</t>
+  </si>
+  <si>
+    <t>30m 04s</t>
+  </si>
+  <si>
+    <t>1m 40s</t>
+  </si>
+  <si>
+    <t>20m 59s</t>
+  </si>
+  <si>
+    <t>1m 29s</t>
+  </si>
+  <si>
+    <t>13m 14s</t>
+  </si>
+  <si>
+    <t>1m 23s</t>
+  </si>
+  <si>
+    <t>9m 44s</t>
+  </si>
+  <si>
+    <t>1m 14s</t>
+  </si>
+  <si>
+    <t>5m 53s</t>
+  </si>
+  <si>
+    <t>1m 08s</t>
+  </si>
+  <si>
+    <t>3m 22s</t>
+  </si>
+  <si>
+    <t>1m 02s</t>
+  </si>
+  <si>
+    <t>2m 16s</t>
   </si>
 </sst>
 </file>
@@ -690,7 +744,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -999,11 +1053,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1099,6 +1216,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1395,10 +1539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D4:Q22"/>
+  <dimension ref="D4:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1734,46 +1878,46 @@
       </c>
     </row>
     <row r="13" spans="4:17">
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="33" t="s">
         <v>139</v>
       </c>
       <c r="E13" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="34">
         <v>63.539000000000001</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="34">
         <v>0.215</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="34">
         <v>5000</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="34">
         <v>10344</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="34">
         <v>9734</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="34">
         <v>5337</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="34">
         <v>0</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="34">
         <v>0</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="34">
         <v>55</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="34">
         <v>2</v>
       </c>
-      <c r="Q13" s="24">
+      <c r="Q13" s="35">
         <v>1</v>
       </c>
     </row>
@@ -2070,8 +2214,453 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="4:17">
+    <row r="22" spans="4:17" ht="15.75" thickBot="1">
       <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="4:17" ht="15.75" thickBot="1">
+      <c r="D23" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="4:17" ht="15.75" thickBot="1">
+      <c r="D24" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q24" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="4:17">
+      <c r="D25" s="38">
+        <v>500</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="G25" s="40">
+        <v>74.114999999999995</v>
+      </c>
+      <c r="H25" s="40">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="I25" s="40">
+        <v>500</v>
+      </c>
+      <c r="J25" s="40">
+        <v>1549</v>
+      </c>
+      <c r="K25" s="40">
+        <v>992</v>
+      </c>
+      <c r="L25" s="40">
+        <v>837</v>
+      </c>
+      <c r="M25" s="40">
+        <v>0</v>
+      </c>
+      <c r="N25" s="40">
+        <v>0</v>
+      </c>
+      <c r="O25" s="40">
+        <v>55</v>
+      </c>
+      <c r="P25" s="40">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="4:17">
+      <c r="D26" s="4">
+        <v>750</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G26" s="6">
+        <v>69.844999999999999</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="I26" s="6">
+        <v>1000</v>
+      </c>
+      <c r="J26" s="6">
+        <v>2132</v>
+      </c>
+      <c r="K26" s="6">
+        <v>1536</v>
+      </c>
+      <c r="L26" s="6">
+        <v>1091</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0</v>
+      </c>
+      <c r="N26" s="6">
+        <v>0</v>
+      </c>
+      <c r="O26" s="6">
+        <v>55</v>
+      </c>
+      <c r="P26" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="4:17">
+      <c r="D27" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="G27" s="6">
+        <v>69.037999999999997</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="I27" s="6">
+        <v>1000</v>
+      </c>
+      <c r="J27" s="6">
+        <v>2643</v>
+      </c>
+      <c r="K27" s="6">
+        <v>2048</v>
+      </c>
+      <c r="L27" s="6">
+        <v>1341</v>
+      </c>
+      <c r="M27" s="6">
+        <v>0</v>
+      </c>
+      <c r="N27" s="6">
+        <v>0</v>
+      </c>
+      <c r="O27" s="6">
+        <v>55</v>
+      </c>
+      <c r="P27" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="4:17">
+      <c r="D28" s="4">
+        <v>1500</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G28" s="6">
+        <v>68.638999999999996</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="I28" s="6">
+        <v>1500</v>
+      </c>
+      <c r="J28" s="6">
+        <v>3703</v>
+      </c>
+      <c r="K28" s="6">
+        <v>3102</v>
+      </c>
+      <c r="L28" s="6">
+        <v>1845</v>
+      </c>
+      <c r="M28" s="6">
+        <v>0</v>
+      </c>
+      <c r="N28" s="6">
+        <v>0</v>
+      </c>
+      <c r="O28" s="6">
+        <v>55</v>
+      </c>
+      <c r="P28" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="4:17">
+      <c r="D29" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G29" s="6">
+        <v>64.658000000000001</v>
+      </c>
+      <c r="H29" s="6">
+        <v>0.214</v>
+      </c>
+      <c r="I29" s="6">
+        <v>2000</v>
+      </c>
+      <c r="J29" s="6">
+        <v>4753</v>
+      </c>
+      <c r="K29" s="6">
+        <v>4158</v>
+      </c>
+      <c r="L29" s="6">
+        <v>2345</v>
+      </c>
+      <c r="M29" s="6">
+        <v>0</v>
+      </c>
+      <c r="N29" s="6">
+        <v>0</v>
+      </c>
+      <c r="O29" s="6">
+        <v>55</v>
+      </c>
+      <c r="P29" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="4:17">
+      <c r="D30" s="4">
+        <v>2750</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G30" s="6">
+        <v>62.606999999999999</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0.214</v>
+      </c>
+      <c r="I30" s="6">
+        <v>2750</v>
+      </c>
+      <c r="J30" s="6">
+        <v>5940</v>
+      </c>
+      <c r="K30" s="6">
+        <v>5332</v>
+      </c>
+      <c r="L30" s="6">
+        <v>3087</v>
+      </c>
+      <c r="M30" s="6">
+        <v>0</v>
+      </c>
+      <c r="N30" s="6">
+        <v>0</v>
+      </c>
+      <c r="O30" s="6">
+        <v>55</v>
+      </c>
+      <c r="P30" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="4:17">
+      <c r="D31" s="4">
+        <v>3500</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G31" s="6">
+        <v>61.154000000000003</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0.214</v>
+      </c>
+      <c r="I31" s="6">
+        <v>3500</v>
+      </c>
+      <c r="J31" s="6">
+        <v>7429</v>
+      </c>
+      <c r="K31" s="6">
+        <v>6820</v>
+      </c>
+      <c r="L31" s="6">
+        <v>3837</v>
+      </c>
+      <c r="M31" s="6">
+        <v>0</v>
+      </c>
+      <c r="N31" s="6">
+        <v>0</v>
+      </c>
+      <c r="O31" s="6">
+        <v>55</v>
+      </c>
+      <c r="P31" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="4:17">
+      <c r="D32" s="4">
+        <v>4500</v>
+      </c>
+      <c r="E32" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G32" s="6">
+        <v>65.067999999999998</v>
+      </c>
+      <c r="H32" s="6">
+        <v>0.215</v>
+      </c>
+      <c r="I32" s="6">
+        <v>4500</v>
+      </c>
+      <c r="J32" s="6">
+        <v>9353</v>
+      </c>
+      <c r="K32" s="6">
+        <v>8742</v>
+      </c>
+      <c r="L32" s="6">
+        <v>4837</v>
+      </c>
+      <c r="M32" s="6">
+        <v>0</v>
+      </c>
+      <c r="N32" s="6">
+        <v>0</v>
+      </c>
+      <c r="O32" s="6">
+        <v>55</v>
+      </c>
+      <c r="P32" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="4:17" ht="15.75" thickBot="1">
+      <c r="D33" s="17">
+        <v>6000</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G33" s="6">
+        <v>60.475000000000001</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0.215</v>
+      </c>
+      <c r="I33" s="6">
+        <v>6000</v>
+      </c>
+      <c r="J33" s="6">
+        <v>12264</v>
+      </c>
+      <c r="K33" s="6">
+        <v>11656</v>
+      </c>
+      <c r="L33" s="6">
+        <v>6337</v>
+      </c>
+      <c r="M33" s="6">
+        <v>0</v>
+      </c>
+      <c r="N33" s="6">
+        <v>0</v>
+      </c>
+      <c r="O33" s="6">
+        <v>55</v>
+      </c>
+      <c r="P33" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MATLAB/SintesisYRecursos.xlsx
+++ b/MATLAB/SintesisYRecursos.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eros_\Downloads\TFMPedalMultiefectosI2S_OPT\MATLAB\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="28455" windowHeight="12540" tabRatio="601"/>
   </bookViews>
@@ -27,12 +22,12 @@
     <sheet name="Timing Filter" sheetId="15" r:id="rId13"/>
     <sheet name="Timing Config_Reverb" sheetId="16" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="216">
   <si>
     <t>ES</t>
   </si>
@@ -662,13 +657,31 @@
   </si>
   <si>
     <t>Tiempo de síntesis</t>
+  </si>
+  <si>
+    <t>LUT (%)</t>
+  </si>
+  <si>
+    <t>LUTRAM (%)</t>
+  </si>
+  <si>
+    <t>FF (%)</t>
+  </si>
+  <si>
+    <t>LUT_Total</t>
+  </si>
+  <si>
+    <t>LUTRAM_Total</t>
+  </si>
+  <si>
+    <t>FF_Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -685,7 +698,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -721,8 +734,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1083,11 +1102,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1209,6 +1254,27 @@
     <xf numFmtId="45" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1227,18 +1293,8 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1267,7 +1323,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1275,33 +1330,2417 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>LUTRAM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Recursos TFM'!$I$25:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Recursos TFM'!$K$25:$K$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4158</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6820</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8742</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9734</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11656</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D1C3-4349-B7C8-D4AFECAAC7FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="118431744"/>
+        <c:axId val="118433664"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="118431744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="118433664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="118433664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="118431744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+        <a:prstClr val="black">
+          <a:alpha val="40000"/>
+        </a:prstClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-ES"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>LUT</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>LUTRAM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Recursos TFM'!$I$25:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Recursos TFM'!$J$25:$J$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2132</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2643</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3703</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4753</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5940</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7429</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9353</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10344</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12264</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE2D-4078-86FD-2D95B8E293BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="118035968"/>
+        <c:axId val="118037888"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="118035968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="118037888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="118037888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="118035968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+        <a:prstClr val="black">
+          <a:alpha val="40000"/>
+        </a:prstClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-ES"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>FF</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>FF</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Recursos TFM'!$I$25:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Recursos TFM'!$L$25:$L$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>837</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1091</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1341</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1845</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2345</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3087</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3837</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4837</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5337</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6337</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-90BC-414A-B850-E4B6D310FE7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="118053888"/>
+        <c:axId val="118084736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="118053888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="118084736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="118084736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="118053888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+        <a:prstClr val="black">
+          <a:alpha val="40000"/>
+        </a:prstClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-ES"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Tiempo Síntesis</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>tiempo de Sintesís</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Recursos TFM'!$I$25:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Recursos TFM'!$E$25:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>mm:ss</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.3425925925925925E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5740740740740741E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3379629629629631E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0856481481481481E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7592592592592591E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.1898148148148139E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4571759259259258E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0879629629629626E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4733796296296297E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7511574074074072E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-68E0-41AE-B1E6-B210518462B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="119034624"/>
+        <c:axId val="119036544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="119034624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="119036544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="119036544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="119034624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+        <a:prstClr val="black">
+          <a:alpha val="40000"/>
+        </a:prstClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-ES"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Camino Crítico</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Camino Crítico</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Recursos TFM'!$I$25:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Recursos TFM'!$G$25:$G$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>74.114999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.844999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.037999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.638999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.658000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62.606999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61.154000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.067999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63.539000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.475000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3A5C-47F3-96C4-8566B3F9861B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="119068928"/>
+        <c:axId val="119222656"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="119068928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="119222656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="119222656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="50"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="119068928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+        <a:prstClr val="black">
+          <a:alpha val="40000"/>
+        </a:prstClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-ES"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>LUTRAM (%)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>LUTRAM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Recursos TFM'!$I$25:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Recursos TFM'!$S$25:$S$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.2210526315789476</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0842105263157897</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.778947368421052</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.326315789473686</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.88421052631579</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.063157894736843</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.89473684210526</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46.010526315789477</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51.231578947368419</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61.347368421052629</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D1C3-4349-B7C8-D4AFECAAC7FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:axId val="108840832"/>
+        <c:axId val="108880256"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="108840832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="108880256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="108880256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="108840832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+        <a:prstClr val="black">
+          <a:alpha val="40000"/>
+        </a:prstClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-ES"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>LUT(%)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1417,67 +3856,58 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Recursos TFM'!$K$25:$K$34</c:f>
+              <c:f>'Recursos TFM'!$R$25:$R$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>992</c:v>
+                  <c:v>2.4432176656151419</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1536</c:v>
+                  <c:v>3.362776025236593</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2048</c:v>
+                  <c:v>4.1687697160883284</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3102</c:v>
+                  <c:v>5.8406940063091479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4158</c:v>
+                  <c:v>7.4968454258675079</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5332</c:v>
+                  <c:v>9.3690851735015777</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6820</c:v>
+                  <c:v>11.717665615141955</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8742</c:v>
+                  <c:v>14.752365930599369</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9734</c:v>
+                  <c:v>16.315457413249213</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11656</c:v>
+                  <c:v>19.343848580441641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D1C3-4349-B7C8-D4AFECAAC7FC}"/>
+              <c16:uniqueId val="{00000000-AE2D-4078-86FD-2D95B8E293BB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="12086720"/>
-        <c:axId val="12095040"/>
+        <c:axId val="105692160"/>
+        <c:axId val="108692992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="12086720"/>
+        <c:axId val="105692160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1520,7 +3950,6 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1528,92 +3957,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="12095040"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="12095040"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1642,308 +3988,16 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12086720"/>
+        <c:crossAx val="108692992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-ES"/>
-              <a:t>LUT</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>LUTRAM</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent1">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Recursos TFM'!$I$25:$I$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Recursos TFM'!$J$25:$J$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1549</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2132</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2643</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3703</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4753</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5940</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7429</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9353</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10344</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12264</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AE2D-4078-86FD-2D95B8E293BB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="12086720"/>
-        <c:axId val="12095040"/>
-      </c:scatterChart>
       <c:valAx>
-        <c:axId val="12086720"/>
+        <c:axId val="108692992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1958,65 +4012,8 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-ES"/>
-                  <a:t>N</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2045,63 +4042,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12095040"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="12095040"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="12086720"/>
+        <c:crossAx val="105692160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2115,7 +4056,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2130,7 +4070,13 @@
       </a:solidFill>
       <a:round/>
     </a:ln>
-    <a:effectLst/>
+    <a:effectLst>
+      <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+        <a:prstClr val="black">
+          <a:alpha val="40000"/>
+        </a:prstClr>
+      </a:outerShdw>
+    </a:effectLst>
   </c:spPr>
   <c:txPr>
     <a:bodyPr/>
@@ -2144,25 +4090,15 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2191,7 +4127,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2199,33 +4134,11 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2341,67 +4254,58 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Recursos TFM'!$L$25:$L$34</c:f>
+              <c:f>'Recursos TFM'!$T$25:$T$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>837</c:v>
+                  <c:v>0.66009463722397477</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1091</c:v>
+                  <c:v>0.86041009463722395</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1341</c:v>
+                  <c:v>1.0575709779179812</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1845</c:v>
+                  <c:v>1.4550473186119874</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2345</c:v>
+                  <c:v>1.8493690851735016</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3087</c:v>
+                  <c:v>2.4345425867507888</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3837</c:v>
+                  <c:v>3.02602523659306</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4837</c:v>
+                  <c:v>3.8146687697160884</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5337</c:v>
+                  <c:v>4.2089905362776028</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6337</c:v>
+                  <c:v>4.9976340694006307</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-90BC-414A-B850-E4B6D310FE7D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="12086720"/>
-        <c:axId val="12095040"/>
+        <c:axId val="105597568"/>
+        <c:axId val="105690624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="12086720"/>
+        <c:axId val="105597568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2444,7 +4348,6 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2452,30 +4355,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2504,16 +4386,15 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12095040"/>
+        <c:crossAx val="105690624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="12095040"/>
+        <c:axId val="105690624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2531,7 +4412,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2560,7 +4440,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12086720"/>
+        <c:crossAx val="105597568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2574,7 +4454,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2589,7 +4468,13 @@
       </a:solidFill>
       <a:round/>
     </a:ln>
-    <a:effectLst/>
+    <a:effectLst>
+      <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+        <a:prstClr val="black">
+          <a:alpha val="40000"/>
+        </a:prstClr>
+      </a:outerShdw>
+    </a:effectLst>
   </c:spPr>
   <c:txPr>
     <a:bodyPr/>
@@ -2603,926 +4488,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-ES"/>
-              <a:t>Tiempo Síntesis</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>tiempo de Sintesís</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent1">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Recursos TFM'!$I$25:$I$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Recursos TFM'!$E$25:$E$34</c:f>
-              <c:numCache>
-                <c:formatCode>mm:ss</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.3425925925925925E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5740740740740741E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.3379629629629631E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0856481481481481E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.7592592592592591E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.1898148148148139E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.4571759259259258E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.0879629629629626E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.4733796296296297E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.7511574074074072E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-68E0-41AE-B1E6-B210518462B3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="12086720"/>
-        <c:axId val="12095040"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="12086720"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-ES"/>
-                  <a:t>N</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="12095040"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="12095040"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="mm:ss" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="12086720"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-ES"/>
-              <a:t>Camino Crítico</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Camino Crítico</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:shade val="51000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="80000">
-                    <a:schemeClr val="accent1">
-                      <a:shade val="93000"/>
-                      <a:satMod val="130000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:shade val="94000"/>
-                      <a:satMod val="135000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="35000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront">
-                  <a:rot lat="0" lon="0" rev="0"/>
-                </a:camera>
-                <a:lightRig rig="threePt" dir="t">
-                  <a:rot lat="0" lon="0" rev="1200000"/>
-                </a:lightRig>
-              </a:scene3d>
-              <a:sp3d>
-                <a:bevelT w="63500" h="25400"/>
-              </a:sp3d>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Recursos TFM'!$I$25:$I$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2750</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Recursos TFM'!$G$25:$G$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>74.114999999999995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>69.844999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>69.037999999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>68.638999999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>64.658000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>62.606999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>61.154000000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>65.067999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>63.539000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>60.475000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3A5C-47F3-96C4-8566B3F9861B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="12086720"/>
-        <c:axId val="12095040"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="12086720"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-ES"/>
-                  <a:t>N</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="12095040"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="12095040"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="50"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="12086720"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6304,16 +7270,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>179294</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>2402</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1723745</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>6163</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>186138</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>6164</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6336,16 +7302,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>120063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>614363</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>39781</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1730148</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>148638</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6368,16 +7334,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>213711</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151279</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>468686</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>84604</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>740829</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>179854</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6393,6 +7359,100 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>162485</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>114461</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1702215</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>143036</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>559934</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>1361</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>183737</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>178253</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Gráfico 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6444,7 +7504,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6476,10 +7536,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6511,7 +7570,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6687,14 +7745,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="D4:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V89" sqref="V89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -6710,15 +7768,17 @@
     <col min="15" max="15" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:17" ht="15.75" thickBot="1"/>
+    <row r="5" spans="4:17" ht="15.75" thickBot="1">
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:17" ht="15.75" thickBot="1">
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
@@ -6762,7 +7822,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:17">
       <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
@@ -6806,7 +7866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:17">
       <c r="D8" s="3" t="s">
         <v>0</v>
       </c>
@@ -6850,7 +7910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:17">
       <c r="D9" s="4" t="s">
         <v>1</v>
       </c>
@@ -6894,7 +7954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:17">
       <c r="D10" s="3" t="s">
         <v>2</v>
       </c>
@@ -6938,7 +7998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:17">
       <c r="D11" s="4" t="s">
         <v>3</v>
       </c>
@@ -6982,7 +8042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:17">
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
@@ -7026,7 +8086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:17">
       <c r="D13" s="33" t="s">
         <v>138</v>
       </c>
@@ -7070,7 +8130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:17">
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
@@ -7114,7 +8174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:17">
       <c r="D15" s="4" t="s">
         <v>6</v>
       </c>
@@ -7158,7 +8218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:17">
       <c r="D16" s="3" t="s">
         <v>7</v>
       </c>
@@ -7202,7 +8262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:22">
       <c r="D17" s="4" t="s">
         <v>8</v>
       </c>
@@ -7246,7 +8306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:22">
       <c r="D18" s="3" t="s">
         <v>9</v>
       </c>
@@ -7290,7 +8350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:22" ht="15.75" thickBot="1">
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
@@ -7333,7 +8393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:22" ht="15.75" thickBot="1">
       <c r="G20" s="31">
         <f>MIN(G8,G9,G10,G11,G12,G13,G14,G15,G16,G17,G18)</f>
         <v>63.539000000000001</v>
@@ -7363,15 +8423,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:22" ht="15.75" thickBot="1">
       <c r="E22" s="16"/>
     </row>
-    <row r="23" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:22" ht="15.75" thickBot="1">
       <c r="D23" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:22" ht="15.75" thickBot="1">
       <c r="D24" s="36" t="s">
         <v>200</v>
       </c>
@@ -7414,8 +8474,23 @@
       <c r="Q24" s="11" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="25" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R24" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="S24" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="T24" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="U24" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="V24" s="45">
+        <v>63400</v>
+      </c>
+    </row>
+    <row r="25" spans="4:22" ht="15.75" thickBot="1">
       <c r="D25" s="12">
         <v>500</v>
       </c>
@@ -7458,8 +8533,26 @@
       <c r="Q25" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R25" s="18">
+        <f>J25*100/V24</f>
+        <v>2.4432176656151419</v>
+      </c>
+      <c r="S25" s="19">
+        <f>K25*100/V25</f>
+        <v>5.2210526315789476</v>
+      </c>
+      <c r="T25" s="43">
+        <f>L25*100/V26</f>
+        <v>0.66009463722397477</v>
+      </c>
+      <c r="U25" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="V25" s="47">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="26" spans="4:22" ht="15.75" thickBot="1">
       <c r="D26" s="4">
         <v>750</v>
       </c>
@@ -7502,8 +8595,26 @@
       <c r="Q26" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R26" s="18">
+        <f>J26*100/V24</f>
+        <v>3.362776025236593</v>
+      </c>
+      <c r="S26" s="19">
+        <f>K26*100/V25</f>
+        <v>8.0842105263157897</v>
+      </c>
+      <c r="T26" s="43">
+        <f>L26*100/V26</f>
+        <v>0.86041009463722395</v>
+      </c>
+      <c r="U26" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="V26" s="49">
+        <v>126800</v>
+      </c>
+    </row>
+    <row r="27" spans="4:22" ht="15.75" thickBot="1">
       <c r="D27" s="4">
         <v>1000</v>
       </c>
@@ -7546,8 +8657,20 @@
       <c r="Q27" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R27" s="18">
+        <f>J27*100/V24</f>
+        <v>4.1687697160883284</v>
+      </c>
+      <c r="S27" s="19">
+        <f>K27*100/V25</f>
+        <v>10.778947368421052</v>
+      </c>
+      <c r="T27" s="20">
+        <f>L27*100/V26</f>
+        <v>1.0575709779179812</v>
+      </c>
+    </row>
+    <row r="28" spans="4:22" ht="15.75" thickBot="1">
       <c r="D28" s="4">
         <v>1500</v>
       </c>
@@ -7590,8 +8713,20 @@
       <c r="Q28" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R28" s="18">
+        <f>J28*100/V24</f>
+        <v>5.8406940063091479</v>
+      </c>
+      <c r="S28" s="19">
+        <f>K28*100/V25</f>
+        <v>16.326315789473686</v>
+      </c>
+      <c r="T28" s="20">
+        <f>L28*100/V26</f>
+        <v>1.4550473186119874</v>
+      </c>
+    </row>
+    <row r="29" spans="4:22" ht="15.75" thickBot="1">
       <c r="D29" s="4">
         <v>2000</v>
       </c>
@@ -7634,8 +8769,20 @@
       <c r="Q29" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R29" s="18">
+        <f>J29*100/V24</f>
+        <v>7.4968454258675079</v>
+      </c>
+      <c r="S29" s="19">
+        <f>K29*100/V25</f>
+        <v>21.88421052631579</v>
+      </c>
+      <c r="T29" s="20">
+        <f>L29*100/V26</f>
+        <v>1.8493690851735016</v>
+      </c>
+    </row>
+    <row r="30" spans="4:22" ht="15.75" thickBot="1">
       <c r="D30" s="4">
         <v>2750</v>
       </c>
@@ -7678,8 +8825,20 @@
       <c r="Q30" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R30" s="18">
+        <f>J30*100/V24</f>
+        <v>9.3690851735015777</v>
+      </c>
+      <c r="S30" s="19">
+        <f>K30*100/V25</f>
+        <v>28.063157894736843</v>
+      </c>
+      <c r="T30" s="20">
+        <f>L30*100/V26</f>
+        <v>2.4345425867507888</v>
+      </c>
+    </row>
+    <row r="31" spans="4:22" ht="15.75" thickBot="1">
       <c r="D31" s="4">
         <v>3500</v>
       </c>
@@ -7722,8 +8881,20 @@
       <c r="Q31" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R31" s="18">
+        <f>J31*100/V24</f>
+        <v>11.717665615141955</v>
+      </c>
+      <c r="S31" s="19">
+        <f>K31*100/V25</f>
+        <v>35.89473684210526</v>
+      </c>
+      <c r="T31" s="20">
+        <f>L31*100/V26</f>
+        <v>3.02602523659306</v>
+      </c>
+    </row>
+    <row r="32" spans="4:22" ht="15.75" thickBot="1">
       <c r="D32" s="4">
         <v>4500</v>
       </c>
@@ -7766,8 +8937,20 @@
       <c r="Q32" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="R32" s="18">
+        <f>J32*100/V24</f>
+        <v>14.752365930599369</v>
+      </c>
+      <c r="S32" s="19">
+        <f>K32*100/V25</f>
+        <v>46.010526315789477</v>
+      </c>
+      <c r="T32" s="20">
+        <f>L32*100/V26</f>
+        <v>3.8146687697160884</v>
+      </c>
+    </row>
+    <row r="33" spans="4:20" ht="15.75" thickBot="1">
       <c r="D33" s="4">
         <v>5000</v>
       </c>
@@ -7810,8 +8993,20 @@
       <c r="Q33" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="4:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R33" s="18">
+        <f>J33*100/V24</f>
+        <v>16.315457413249213</v>
+      </c>
+      <c r="S33" s="19">
+        <f>K33*100/V25</f>
+        <v>51.231578947368419</v>
+      </c>
+      <c r="T33" s="20">
+        <f>L33*100/V26</f>
+        <v>4.2089905362776028</v>
+      </c>
+    </row>
+    <row r="34" spans="4:20" ht="15.75" thickBot="1">
       <c r="D34" s="17">
         <v>6000</v>
       </c>
@@ -7853,6 +9048,18 @@
       </c>
       <c r="Q34" s="27">
         <v>1</v>
+      </c>
+      <c r="R34" s="18">
+        <f>J34*100/V24</f>
+        <v>19.343848580441641</v>
+      </c>
+      <c r="S34" s="19">
+        <f>K34*100/V25</f>
+        <v>61.347368421052629</v>
+      </c>
+      <c r="T34" s="20">
+        <f>L34*100/V26</f>
+        <v>4.9976340694006307</v>
       </c>
     </row>
   </sheetData>
@@ -7863,14 +9070,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
@@ -7886,7 +9093,7 @@
     <col min="14" max="14" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -7930,7 +9137,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="13" t="s">
         <v>35</v>
       </c>
@@ -7974,7 +9181,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="13" t="s">
         <v>40</v>
       </c>
@@ -8018,7 +9225,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="13" t="s">
         <v>42</v>
       </c>
@@ -8062,7 +9269,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="13" t="s">
         <v>44</v>
       </c>
@@ -8106,7 +9313,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="13" t="s">
         <v>46</v>
       </c>
@@ -8150,12 +9357,12 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B7" s="14">
-        <v>74.575363159179688</v>
+        <v>74.575363159179687</v>
       </c>
       <c r="C7" s="15">
         <v>0</v>
@@ -8194,7 +9401,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="13" t="s">
         <v>50</v>
       </c>
@@ -8238,7 +9445,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="13" t="s">
         <v>52</v>
       </c>
@@ -8282,7 +9489,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="13" t="s">
         <v>54</v>
       </c>
@@ -8326,7 +9533,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="13" t="s">
         <v>56</v>
       </c>
@@ -8376,14 +9583,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
@@ -8400,7 +9607,7 @@
     <col min="14" max="14" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -8444,7 +9651,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="13" t="s">
         <v>35</v>
       </c>
@@ -8488,7 +9695,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="13" t="s">
         <v>40</v>
       </c>
@@ -8532,12 +9739,12 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="13" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="14">
-        <v>79.259780883789063</v>
+        <v>79.259780883789062</v>
       </c>
       <c r="C4" s="15">
         <v>5</v>
@@ -8576,12 +9783,12 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="13" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="14">
-        <v>79.259780883789063</v>
+        <v>79.259780883789062</v>
       </c>
       <c r="C5" s="15">
         <v>5</v>
@@ -8620,7 +9827,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="13" t="s">
         <v>46</v>
       </c>
@@ -8664,7 +9871,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="13" t="s">
         <v>48</v>
       </c>
@@ -8708,7 +9915,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="13" t="s">
         <v>50</v>
       </c>
@@ -8728,7 +9935,7 @@
         <v>67</v>
       </c>
       <c r="G8" s="14">
-        <v>8.8392410278320313</v>
+        <v>8.8392410278320312</v>
       </c>
       <c r="H8" s="14">
         <v>1.5580002069473267</v>
@@ -8752,7 +9959,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="13" t="s">
         <v>52</v>
       </c>
@@ -8796,7 +10003,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="13" t="s">
         <v>54</v>
       </c>
@@ -8840,7 +10047,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="13" t="s">
         <v>56</v>
       </c>
@@ -8890,14 +10097,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
@@ -8914,7 +10121,7 @@
     <col min="14" max="14" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -8958,7 +10165,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="13" t="s">
         <v>35</v>
       </c>
@@ -9002,7 +10209,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="13" t="s">
         <v>40</v>
       </c>
@@ -9046,7 +10253,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="13" t="s">
         <v>42</v>
       </c>
@@ -9090,7 +10297,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="13" t="s">
         <v>44</v>
       </c>
@@ -9134,7 +10341,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="13" t="s">
         <v>46</v>
       </c>
@@ -9178,7 +10385,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="13" t="s">
         <v>48</v>
       </c>
@@ -9222,7 +10429,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="13" t="s">
         <v>50</v>
       </c>
@@ -9266,7 +10473,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="13" t="s">
         <v>52</v>
       </c>
@@ -9310,7 +10517,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="13" t="s">
         <v>54</v>
       </c>
@@ -9354,7 +10561,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="13" t="s">
         <v>56</v>
       </c>
@@ -9404,14 +10611,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
@@ -9427,7 +10634,7 @@
     <col min="14" max="14" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -9471,7 +10678,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="13" t="s">
         <v>35</v>
       </c>
@@ -9515,7 +10722,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="13" t="s">
         <v>40</v>
       </c>
@@ -9559,7 +10766,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="13" t="s">
         <v>42</v>
       </c>
@@ -9603,7 +10810,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="13" t="s">
         <v>44</v>
       </c>
@@ -9647,7 +10854,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="13" t="s">
         <v>46</v>
       </c>
@@ -9691,7 +10898,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="13" t="s">
         <v>48</v>
       </c>
@@ -9735,7 +10942,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="13" t="s">
         <v>50</v>
       </c>
@@ -9779,7 +10986,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="13" t="s">
         <v>52</v>
       </c>
@@ -9823,7 +11030,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="13" t="s">
         <v>54</v>
       </c>
@@ -9867,7 +11074,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="13" t="s">
         <v>56</v>
       </c>
@@ -9917,14 +11124,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
@@ -9940,7 +11147,7 @@
     <col min="14" max="14" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -9984,7 +11191,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="13" t="s">
         <v>35</v>
       </c>
@@ -10028,7 +11235,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="13" t="s">
         <v>40</v>
       </c>
@@ -10072,7 +11279,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="13" t="s">
         <v>42</v>
       </c>
@@ -10116,7 +11323,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="13" t="s">
         <v>44</v>
       </c>
@@ -10160,7 +11367,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="13" t="s">
         <v>46</v>
       </c>
@@ -10204,7 +11411,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="13" t="s">
         <v>48</v>
       </c>
@@ -10248,7 +11455,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="13" t="s">
         <v>50</v>
       </c>
@@ -10292,7 +11499,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="13" t="s">
         <v>52</v>
       </c>
@@ -10336,7 +11543,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="13" t="s">
         <v>54</v>
       </c>
@@ -10380,7 +11587,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="13" t="s">
         <v>56</v>
       </c>
@@ -10430,14 +11637,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
@@ -10454,7 +11661,7 @@
     <col min="14" max="14" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -10498,12 +11705,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="14">
-        <v>51.978317260742188</v>
+        <v>51.978317260742187</v>
       </c>
       <c r="C2" s="15">
         <v>5</v>
@@ -10542,12 +11749,12 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="13" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="14">
-        <v>51.978317260742188</v>
+        <v>51.978317260742187</v>
       </c>
       <c r="C3" s="15">
         <v>5</v>
@@ -10586,12 +11793,12 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="13" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="14">
-        <v>51.978317260742188</v>
+        <v>51.978317260742187</v>
       </c>
       <c r="C4" s="15">
         <v>5</v>
@@ -10630,12 +11837,12 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="13" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="14">
-        <v>51.978317260742188</v>
+        <v>51.978317260742187</v>
       </c>
       <c r="C5" s="15">
         <v>5</v>
@@ -10674,7 +11881,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="13" t="s">
         <v>46</v>
       </c>
@@ -10718,7 +11925,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="13" t="s">
         <v>48</v>
       </c>
@@ -10762,7 +11969,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="13" t="s">
         <v>50</v>
       </c>
@@ -10806,7 +12013,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="13" t="s">
         <v>52</v>
       </c>
@@ -10850,7 +12057,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="13" t="s">
         <v>54</v>
       </c>
@@ -10894,7 +12101,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="13" t="s">
         <v>56</v>
       </c>
@@ -10944,14 +12151,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
@@ -10968,7 +12175,7 @@
     <col min="14" max="14" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -11012,7 +12219,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="13" t="s">
         <v>35</v>
       </c>
@@ -11056,7 +12263,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="13" t="s">
         <v>40</v>
       </c>
@@ -11100,7 +12307,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="13" t="s">
         <v>42</v>
       </c>
@@ -11144,7 +12351,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="13" t="s">
         <v>44</v>
       </c>
@@ -11188,12 +12395,12 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="13" t="s">
         <v>46</v>
       </c>
       <c r="B6" s="14">
-        <v>77.403366088867188</v>
+        <v>77.403366088867187</v>
       </c>
       <c r="C6" s="15">
         <v>7</v>
@@ -11232,7 +12439,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="13" t="s">
         <v>48</v>
       </c>
@@ -11276,7 +12483,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="13" t="s">
         <v>50</v>
       </c>
@@ -11320,7 +12527,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="13" t="s">
         <v>52</v>
       </c>
@@ -11364,7 +12571,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="13" t="s">
         <v>54</v>
       </c>
@@ -11408,7 +12615,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="13" t="s">
         <v>56</v>
       </c>
@@ -11458,14 +12665,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
@@ -11482,7 +12689,7 @@
     <col min="14" max="14" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -11526,7 +12733,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="13" t="s">
         <v>35</v>
       </c>
@@ -11570,7 +12777,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="13" t="s">
         <v>40</v>
       </c>
@@ -11614,7 +12821,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="13" t="s">
         <v>42</v>
       </c>
@@ -11658,7 +12865,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="13" t="s">
         <v>44</v>
       </c>
@@ -11702,7 +12909,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="13" t="s">
         <v>46</v>
       </c>
@@ -11746,7 +12953,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="13" t="s">
         <v>48</v>
       </c>
@@ -11766,7 +12973,7 @@
         <v>82</v>
       </c>
       <c r="G7" s="14">
-        <v>7.7412948608398438</v>
+        <v>7.7412948608398437</v>
       </c>
       <c r="H7" s="14">
         <v>1.7979999780654907</v>
@@ -11790,7 +12997,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="13" t="s">
         <v>50</v>
       </c>
@@ -11810,7 +13017,7 @@
         <v>74</v>
       </c>
       <c r="G8" s="14">
-        <v>7.7412948608398438</v>
+        <v>7.7412948608398437</v>
       </c>
       <c r="H8" s="14">
         <v>1.7979999780654907</v>
@@ -11834,7 +13041,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="13" t="s">
         <v>52</v>
       </c>
@@ -11878,7 +13085,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="13" t="s">
         <v>54</v>
       </c>
@@ -11922,7 +13129,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="13" t="s">
         <v>56</v>
       </c>
@@ -11972,14 +13179,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
@@ -11996,7 +13203,7 @@
     <col min="14" max="14" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -12040,7 +13247,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="13" t="s">
         <v>35</v>
       </c>
@@ -12084,7 +13291,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="13" t="s">
         <v>40</v>
       </c>
@@ -12128,7 +13335,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="13" t="s">
         <v>42</v>
       </c>
@@ -12172,7 +13379,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="13" t="s">
         <v>44</v>
       </c>
@@ -12216,7 +13423,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="13" t="s">
         <v>46</v>
       </c>
@@ -12260,7 +13467,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="13" t="s">
         <v>48</v>
       </c>
@@ -12304,7 +13511,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="13" t="s">
         <v>50</v>
       </c>
@@ -12348,7 +13555,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="13" t="s">
         <v>52</v>
       </c>
@@ -12392,7 +13599,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="13" t="s">
         <v>54</v>
       </c>
@@ -12436,7 +13643,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="13" t="s">
         <v>56</v>
       </c>
@@ -12486,14 +13693,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
@@ -12509,7 +13716,7 @@
     <col min="14" max="14" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -12553,7 +13760,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="13" t="s">
         <v>35</v>
       </c>
@@ -12597,7 +13804,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="13" t="s">
         <v>40</v>
       </c>
@@ -12641,7 +13848,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="13" t="s">
         <v>42</v>
       </c>
@@ -12685,7 +13892,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="13" t="s">
         <v>44</v>
       </c>
@@ -12729,7 +13936,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="13" t="s">
         <v>46</v>
       </c>
@@ -12749,7 +13956,7 @@
         <v>104</v>
       </c>
       <c r="G6" s="14">
-        <v>24.074508666992188</v>
+        <v>24.074508666992187</v>
       </c>
       <c r="H6" s="14">
         <v>2.5899999141693115</v>
@@ -12773,7 +13980,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="13" t="s">
         <v>48</v>
       </c>
@@ -12817,7 +14024,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="13" t="s">
         <v>50</v>
       </c>
@@ -12861,7 +14068,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="13" t="s">
         <v>52</v>
       </c>
@@ -12905,7 +14112,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="13" t="s">
         <v>54</v>
       </c>
@@ -12949,7 +14156,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="13" t="s">
         <v>56</v>
       </c>
@@ -12999,14 +14206,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
@@ -13023,7 +14230,7 @@
     <col min="14" max="14" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -13067,7 +14274,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="13" t="s">
         <v>35</v>
       </c>
@@ -13111,7 +14318,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="13" t="s">
         <v>40</v>
       </c>
@@ -13155,7 +14362,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="13" t="s">
         <v>42</v>
       </c>
@@ -13199,7 +14406,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="13" t="s">
         <v>44</v>
       </c>
@@ -13243,7 +14450,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="13" t="s">
         <v>46</v>
       </c>
@@ -13287,7 +14494,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="13" t="s">
         <v>48</v>
       </c>
@@ -13331,7 +14538,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="13" t="s">
         <v>50</v>
       </c>
@@ -13375,7 +14582,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="13" t="s">
         <v>52</v>
       </c>
@@ -13419,7 +14626,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="13" t="s">
         <v>54</v>
       </c>
@@ -13463,7 +14670,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="13" t="s">
         <v>56</v>
       </c>
@@ -13513,14 +14720,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
@@ -13536,7 +14743,7 @@
     <col min="14" max="14" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -13580,7 +14787,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="13" t="s">
         <v>35</v>
       </c>
@@ -13624,7 +14831,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="13" t="s">
         <v>40</v>
       </c>
@@ -13668,7 +14875,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="13" t="s">
         <v>42</v>
       </c>
@@ -13712,7 +14919,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="13" t="s">
         <v>44</v>
       </c>
@@ -13756,7 +14963,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="13" t="s">
         <v>46</v>
       </c>
@@ -13800,7 +15007,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="13" t="s">
         <v>48</v>
       </c>
@@ -13844,7 +15051,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="13" t="s">
         <v>50</v>
       </c>
@@ -13888,7 +15095,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="13" t="s">
         <v>52</v>
       </c>
@@ -13932,7 +15139,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="13" t="s">
         <v>54</v>
       </c>
@@ -13976,7 +15183,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="13" t="s">
         <v>56</v>
       </c>
@@ -14026,14 +15233,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
@@ -14049,7 +15256,7 @@
     <col min="14" max="14" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -14093,7 +15300,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="13" t="s">
         <v>35</v>
       </c>
@@ -14137,7 +15344,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="13" t="s">
         <v>40</v>
       </c>
@@ -14181,7 +15388,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="13" t="s">
         <v>42</v>
       </c>
@@ -14225,7 +15432,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="13" t="s">
         <v>44</v>
       </c>
@@ -14269,7 +15476,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="13" t="s">
         <v>46</v>
       </c>
@@ -14313,7 +15520,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="13" t="s">
         <v>48</v>
       </c>
@@ -14357,7 +15564,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="13" t="s">
         <v>50</v>
       </c>
@@ -14401,7 +15608,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="13" t="s">
         <v>52</v>
       </c>
@@ -14445,7 +15652,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="13" t="s">
         <v>54</v>
       </c>
@@ -14489,7 +15696,7 @@
         <v>0.12928900122642517</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="13" t="s">
         <v>56</v>
       </c>
